--- a/Assets/06.Table/Title_Weapon.xlsx
+++ b/Assets/06.Table/Title_Weapon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F839C97E-919D-4E70-BBD2-51481C1814EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5081010-0B5A-440B-BE4B-A60C8A36C9F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Title_Weapon" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -512,6 +512,15 @@
   </si>
   <si>
     <t>title50</t>
+  </si>
+  <si>
+    <t>title51</t>
+  </si>
+  <si>
+    <t>title52</t>
+  </si>
+  <si>
+    <t>title53</t>
   </si>
 </sst>
 </file>
@@ -1863,6 +1872,39 @@
           </cell>
           <cell r="C114" t="str">
             <v>혼돈무사의 검</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="A115">
+            <v>113</v>
+          </cell>
+          <cell r="B115" t="str">
+            <v>weapon113</v>
+          </cell>
+          <cell r="C115" t="str">
+            <v>무명왕의 검</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="A116">
+            <v>114</v>
+          </cell>
+          <cell r="B116" t="str">
+            <v>weapon114</v>
+          </cell>
+          <cell r="C116" t="str">
+            <v>암흑왕의 검</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="A117">
+            <v>115</v>
+          </cell>
+          <cell r="B117" t="str">
+            <v>weapon115</v>
+          </cell>
+          <cell r="C117" t="str">
+            <v>불사왕의 검</v>
           </cell>
         </row>
       </sheetData>
@@ -2170,11 +2212,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O52"/>
+  <dimension ref="A1:O55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
+      <selection pane="bottomLeft" activeCell="N55" sqref="N55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3800,7 +3842,7 @@
         <v>114</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" ref="C35:C51" si="0">M35&amp;" 획득"</f>
+        <f t="shared" ref="C35:C55" si="0">M35&amp;" 획득"</f>
         <v>인드라검 획득</v>
       </c>
       <c r="D35" s="1">
@@ -4633,7 +4675,7 @@
         <v>129</v>
       </c>
       <c r="C52" t="str">
-        <f t="shared" ref="C52" si="1">M52&amp;" 획득"</f>
+        <f t="shared" ref="C52:C54" si="1">M52&amp;" 획득"</f>
         <v>혼돈무사의 검 획득</v>
       </c>
       <c r="D52" s="1">
@@ -4672,6 +4714,153 @@
       </c>
       <c r="O52">
         <v>725</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="0"/>
+        <v>무명왕의 검 획득</v>
+      </c>
+      <c r="D53" s="1">
+        <v>113</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53">
+        <v>46</v>
+      </c>
+      <c r="G53">
+        <v>148000</v>
+      </c>
+      <c r="H53">
+        <v>27</v>
+      </c>
+      <c r="I53">
+        <v>14800</v>
+      </c>
+      <c r="J53">
+        <v>10</v>
+      </c>
+      <c r="K53" s="1">
+        <v>0</v>
+      </c>
+      <c r="L53" t="b">
+        <v>1</v>
+      </c>
+      <c r="M53" t="str">
+        <f>VLOOKUP(D53,[1]Weapon!$A:$C,3,FALSE)</f>
+        <v>무명왕의 검</v>
+      </c>
+      <c r="N53">
+        <v>11</v>
+      </c>
+      <c r="O53">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="1"/>
+        <v>암흑왕의 검 획득</v>
+      </c>
+      <c r="D54" s="1">
+        <v>114</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54">
+        <v>46</v>
+      </c>
+      <c r="G54">
+        <v>151000</v>
+      </c>
+      <c r="H54">
+        <v>27</v>
+      </c>
+      <c r="I54">
+        <v>15200</v>
+      </c>
+      <c r="J54">
+        <v>10</v>
+      </c>
+      <c r="K54" s="1">
+        <v>0</v>
+      </c>
+      <c r="L54" t="b">
+        <v>1</v>
+      </c>
+      <c r="M54" t="str">
+        <f>VLOOKUP(D54,[1]Weapon!$A:$C,3,FALSE)</f>
+        <v>암흑왕의 검</v>
+      </c>
+      <c r="N54">
+        <v>11</v>
+      </c>
+      <c r="O54">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="0"/>
+        <v>불사왕의 검 획득</v>
+      </c>
+      <c r="D55" s="1">
+        <v>115</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55">
+        <v>46</v>
+      </c>
+      <c r="G55">
+        <v>154000</v>
+      </c>
+      <c r="H55">
+        <v>27</v>
+      </c>
+      <c r="I55">
+        <v>15600</v>
+      </c>
+      <c r="J55">
+        <v>10</v>
+      </c>
+      <c r="K55" s="1">
+        <v>0</v>
+      </c>
+      <c r="L55" t="b">
+        <v>1</v>
+      </c>
+      <c r="M55" t="str">
+        <f>VLOOKUP(D55,[1]Weapon!$A:$C,3,FALSE)</f>
+        <v>불사왕의 검</v>
+      </c>
+      <c r="N55">
+        <v>11</v>
+      </c>
+      <c r="O55">
+        <v>728</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Title_Weapon.xlsx
+++ b/Assets/06.Table/Title_Weapon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5081010-0B5A-440B-BE4B-A60C8A36C9F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75535857-11F6-4DE7-8500-8B5DC4A87313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="0" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Title_Weapon" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -521,6 +521,15 @@
   </si>
   <si>
     <t>title53</t>
+  </si>
+  <si>
+    <t>title54</t>
+  </si>
+  <si>
+    <t>title55</t>
+  </si>
+  <si>
+    <t>title56</t>
   </si>
 </sst>
 </file>
@@ -1907,9 +1916,42 @@
             <v>불사왕의 검</v>
           </cell>
         </row>
+        <row r="118">
+          <cell r="A118">
+            <v>116</v>
+          </cell>
+          <cell r="B118" t="str">
+            <v>weapon116</v>
+          </cell>
+          <cell r="C118" t="str">
+            <v>방랑신선의 지팡이</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="A119">
+            <v>117</v>
+          </cell>
+          <cell r="B119" t="str">
+            <v>weapon117</v>
+          </cell>
+          <cell r="C119" t="str">
+            <v>광명신선의 부채</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="A120">
+            <v>118</v>
+          </cell>
+          <cell r="B120" t="str">
+            <v>weapon118</v>
+          </cell>
+          <cell r="C120" t="str">
+            <v>서월신선의 해금</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2212,11 +2254,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O55"/>
+  <dimension ref="A1:O58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N55" sqref="N55"/>
+      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4861,6 +4903,153 @@
       </c>
       <c r="O55">
         <v>728</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" ref="C56:C58" si="2">M56&amp;" 획득"</f>
+        <v>방랑신선의 지팡이 획득</v>
+      </c>
+      <c r="D56" s="1">
+        <v>116</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56">
+        <v>46</v>
+      </c>
+      <c r="G56">
+        <v>157000</v>
+      </c>
+      <c r="H56">
+        <v>27</v>
+      </c>
+      <c r="I56">
+        <v>16000</v>
+      </c>
+      <c r="J56">
+        <v>10</v>
+      </c>
+      <c r="K56" s="1">
+        <v>0</v>
+      </c>
+      <c r="L56" t="b">
+        <v>1</v>
+      </c>
+      <c r="M56" t="str">
+        <f>VLOOKUP(D56,[1]Weapon!$A:$C,3,FALSE)</f>
+        <v>방랑신선의 지팡이</v>
+      </c>
+      <c r="N56">
+        <v>11</v>
+      </c>
+      <c r="O56">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="2"/>
+        <v>광명신선의 부채 획득</v>
+      </c>
+      <c r="D57" s="1">
+        <v>117</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>46</v>
+      </c>
+      <c r="G57">
+        <v>160000</v>
+      </c>
+      <c r="H57">
+        <v>27</v>
+      </c>
+      <c r="I57">
+        <v>16400</v>
+      </c>
+      <c r="J57">
+        <v>10</v>
+      </c>
+      <c r="K57" s="1">
+        <v>0</v>
+      </c>
+      <c r="L57" t="b">
+        <v>1</v>
+      </c>
+      <c r="M57" t="str">
+        <f>VLOOKUP(D57,[1]Weapon!$A:$C,3,FALSE)</f>
+        <v>광명신선의 부채</v>
+      </c>
+      <c r="N57">
+        <v>11</v>
+      </c>
+      <c r="O57">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="2"/>
+        <v>서월신선의 해금 획득</v>
+      </c>
+      <c r="D58" s="1">
+        <v>118</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58">
+        <v>46</v>
+      </c>
+      <c r="G58">
+        <v>163000</v>
+      </c>
+      <c r="H58">
+        <v>27</v>
+      </c>
+      <c r="I58">
+        <v>16800</v>
+      </c>
+      <c r="J58">
+        <v>10</v>
+      </c>
+      <c r="K58" s="1">
+        <v>0</v>
+      </c>
+      <c r="L58" t="b">
+        <v>1</v>
+      </c>
+      <c r="M58" t="str">
+        <f>VLOOKUP(D58,[1]Weapon!$A:$C,3,FALSE)</f>
+        <v>서월신선의 해금</v>
+      </c>
+      <c r="N58">
+        <v>11</v>
+      </c>
+      <c r="O58">
+        <v>731</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Title_Weapon.xlsx
+++ b/Assets/06.Table/Title_Weapon.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75535857-11F6-4DE7-8500-8B5DC4A87313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE462F3-12A7-4DC5-96A8-E6C99302D143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="0" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Title_Weapon" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -530,6 +530,10 @@
   </si>
   <si>
     <t>title56</t>
+  </si>
+  <si>
+    <t>수미산 인드라검 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1950,8 +1954,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2257,8 +2261,8 @@
   <dimension ref="A1:O58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3883,9 +3887,8 @@
       <c r="B35" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C35" t="str">
-        <f t="shared" ref="C35:C55" si="0">M35&amp;" 획득"</f>
-        <v>인드라검 획득</v>
+      <c r="C35" t="s">
+        <v>136</v>
       </c>
       <c r="D35" s="1">
         <v>88</v>
@@ -3933,7 +3936,7 @@
         <v>115</v>
       </c>
       <c r="C36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C35:C55" si="0">M36&amp;" 획득"</f>
         <v>아드라검 획득</v>
       </c>
       <c r="D36" s="1">

--- a/Assets/06.Table/Title_Weapon.xlsx
+++ b/Assets/06.Table/Title_Weapon.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE462F3-12A7-4DC5-96A8-E6C99302D143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7787E50-119F-4188-800D-0FB97046D5BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Title_Weapon" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -534,6 +534,15 @@
   <si>
     <t>수미산 인드라검 획득</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title57</t>
+  </si>
+  <si>
+    <t>title58</t>
+  </si>
+  <si>
+    <t>title59</t>
   </si>
 </sst>
 </file>
@@ -1951,6 +1960,39 @@
           </cell>
           <cell r="C120" t="str">
             <v>서월신선의 해금</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="A121">
+            <v>119</v>
+          </cell>
+          <cell r="B121" t="str">
+            <v>weapon119</v>
+          </cell>
+          <cell r="C121" t="str">
+            <v>화영신선의 검</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="A122">
+            <v>120</v>
+          </cell>
+          <cell r="B122" t="str">
+            <v>weapon120</v>
+          </cell>
+          <cell r="C122" t="str">
+            <v>천명신선의 검</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="A123">
+            <v>121</v>
+          </cell>
+          <cell r="B123" t="str">
+            <v>weapon121</v>
+          </cell>
+          <cell r="C123" t="str">
+            <v>암영천선의 검</v>
           </cell>
         </row>
       </sheetData>
@@ -2258,11 +2300,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O58"/>
+  <dimension ref="A1:O61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3936,7 +3978,7 @@
         <v>115</v>
       </c>
       <c r="C36" t="str">
-        <f t="shared" ref="C35:C55" si="0">M36&amp;" 획득"</f>
+        <f t="shared" ref="C36:C55" si="0">M36&amp;" 획득"</f>
         <v>아드라검 획득</v>
       </c>
       <c r="D36" s="1">
@@ -5053,6 +5095,153 @@
       </c>
       <c r="O58">
         <v>731</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" ref="C59:C61" si="3">M59&amp;" 획득"</f>
+        <v>화영신선의 검 획득</v>
+      </c>
+      <c r="D59" s="1">
+        <v>119</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59">
+        <v>46</v>
+      </c>
+      <c r="G59">
+        <v>166000</v>
+      </c>
+      <c r="H59">
+        <v>27</v>
+      </c>
+      <c r="I59">
+        <v>17200</v>
+      </c>
+      <c r="J59">
+        <v>10</v>
+      </c>
+      <c r="K59" s="1">
+        <v>0</v>
+      </c>
+      <c r="L59" t="b">
+        <v>1</v>
+      </c>
+      <c r="M59" t="str">
+        <f>VLOOKUP(D59,[1]Weapon!$A:$C,3,FALSE)</f>
+        <v>화영신선의 검</v>
+      </c>
+      <c r="N59">
+        <v>11</v>
+      </c>
+      <c r="O59">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="3"/>
+        <v>천명신선의 검 획득</v>
+      </c>
+      <c r="D60" s="1">
+        <v>120</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60">
+        <v>46</v>
+      </c>
+      <c r="G60">
+        <v>169000</v>
+      </c>
+      <c r="H60">
+        <v>27</v>
+      </c>
+      <c r="I60">
+        <v>17600</v>
+      </c>
+      <c r="J60">
+        <v>10</v>
+      </c>
+      <c r="K60" s="1">
+        <v>0</v>
+      </c>
+      <c r="L60" t="b">
+        <v>1</v>
+      </c>
+      <c r="M60" t="str">
+        <f>VLOOKUP(D60,[1]Weapon!$A:$C,3,FALSE)</f>
+        <v>천명신선의 검</v>
+      </c>
+      <c r="N60">
+        <v>11</v>
+      </c>
+      <c r="O60">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="3"/>
+        <v>암영천선의 검 획득</v>
+      </c>
+      <c r="D61" s="1">
+        <v>121</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61">
+        <v>46</v>
+      </c>
+      <c r="G61">
+        <v>172000</v>
+      </c>
+      <c r="H61">
+        <v>27</v>
+      </c>
+      <c r="I61">
+        <v>18000</v>
+      </c>
+      <c r="J61">
+        <v>10</v>
+      </c>
+      <c r="K61" s="1">
+        <v>0</v>
+      </c>
+      <c r="L61" t="b">
+        <v>1</v>
+      </c>
+      <c r="M61" t="str">
+        <f>VLOOKUP(D61,[1]Weapon!$A:$C,3,FALSE)</f>
+        <v>암영천선의 검</v>
+      </c>
+      <c r="N61">
+        <v>11</v>
+      </c>
+      <c r="O61">
+        <v>734</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Title_Weapon.xlsx
+++ b/Assets/06.Table/Title_Weapon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7787E50-119F-4188-800D-0FB97046D5BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECD2B29-C821-445B-B61B-1335894A8C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -543,6 +543,15 @@
   </si>
   <si>
     <t>title59</t>
+  </si>
+  <si>
+    <t>title60</t>
+  </si>
+  <si>
+    <t>title61</t>
+  </si>
+  <si>
+    <t>title62</t>
   </si>
 </sst>
 </file>
@@ -1993,6 +2002,39 @@
           </cell>
           <cell r="C123" t="str">
             <v>암영천선의 검</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="A124">
+            <v>122</v>
+          </cell>
+          <cell r="B124" t="str">
+            <v>weapon122</v>
+          </cell>
+          <cell r="C124" t="str">
+            <v>혈향천선의 검</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="A125">
+            <v>123</v>
+          </cell>
+          <cell r="B125" t="str">
+            <v>weapon123</v>
+          </cell>
+          <cell r="C125" t="str">
+            <v>홍랑천선의 검</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="A126">
+            <v>124</v>
+          </cell>
+          <cell r="B126" t="str">
+            <v>weapon124</v>
+          </cell>
+          <cell r="C126" t="str">
+            <v>설화천선의 검</v>
           </cell>
         </row>
       </sheetData>
@@ -2300,11 +2342,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O61"/>
+  <dimension ref="A1:O64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C59" sqref="C59"/>
+      <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5242,6 +5284,153 @@
       </c>
       <c r="O61">
         <v>734</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" ref="C62:C64" si="4">M62&amp;" 획득"</f>
+        <v>혈향천선의 검 획득</v>
+      </c>
+      <c r="D62" s="1">
+        <v>122</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="F62">
+        <v>46</v>
+      </c>
+      <c r="G62">
+        <v>175000</v>
+      </c>
+      <c r="H62">
+        <v>27</v>
+      </c>
+      <c r="I62">
+        <v>18400</v>
+      </c>
+      <c r="J62">
+        <v>10</v>
+      </c>
+      <c r="K62" s="1">
+        <v>0</v>
+      </c>
+      <c r="L62" t="b">
+        <v>1</v>
+      </c>
+      <c r="M62" t="str">
+        <f>VLOOKUP(D62,[1]Weapon!$A:$C,3,FALSE)</f>
+        <v>혈향천선의 검</v>
+      </c>
+      <c r="N62">
+        <v>11</v>
+      </c>
+      <c r="O62">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="4"/>
+        <v>홍랑천선의 검 획득</v>
+      </c>
+      <c r="D63" s="1">
+        <v>123</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="F63">
+        <v>46</v>
+      </c>
+      <c r="G63">
+        <v>178000</v>
+      </c>
+      <c r="H63">
+        <v>27</v>
+      </c>
+      <c r="I63">
+        <v>18800</v>
+      </c>
+      <c r="J63">
+        <v>10</v>
+      </c>
+      <c r="K63" s="1">
+        <v>0</v>
+      </c>
+      <c r="L63" t="b">
+        <v>1</v>
+      </c>
+      <c r="M63" t="str">
+        <f>VLOOKUP(D63,[1]Weapon!$A:$C,3,FALSE)</f>
+        <v>홍랑천선의 검</v>
+      </c>
+      <c r="N63">
+        <v>11</v>
+      </c>
+      <c r="O63">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" si="4"/>
+        <v>설화천선의 검 획득</v>
+      </c>
+      <c r="D64" s="1">
+        <v>124</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64">
+        <v>46</v>
+      </c>
+      <c r="G64">
+        <v>181000</v>
+      </c>
+      <c r="H64">
+        <v>27</v>
+      </c>
+      <c r="I64">
+        <v>19200</v>
+      </c>
+      <c r="J64">
+        <v>10</v>
+      </c>
+      <c r="K64" s="1">
+        <v>0</v>
+      </c>
+      <c r="L64" t="b">
+        <v>1</v>
+      </c>
+      <c r="M64" t="str">
+        <f>VLOOKUP(D64,[1]Weapon!$A:$C,3,FALSE)</f>
+        <v>설화천선의 검</v>
+      </c>
+      <c r="N64">
+        <v>11</v>
+      </c>
+      <c r="O64">
+        <v>737</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Title_Weapon.xlsx
+++ b/Assets/06.Table/Title_Weapon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECD2B29-C821-445B-B61B-1335894A8C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A0F792-CD90-471E-A596-3EDFB3C217E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -552,6 +552,12 @@
   </si>
   <si>
     <t>title62</t>
+  </si>
+  <si>
+    <t>title63</t>
+  </si>
+  <si>
+    <t>title64</t>
   </si>
 </sst>
 </file>
@@ -2035,6 +2041,28 @@
           </cell>
           <cell r="C126" t="str">
             <v>설화천선의 검</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="A127">
+            <v>125</v>
+          </cell>
+          <cell r="B127" t="str">
+            <v>weapon125</v>
+          </cell>
+          <cell r="C127" t="str">
+            <v>음혼마군의 검</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="A128">
+            <v>126</v>
+          </cell>
+          <cell r="B128" t="str">
+            <v>weapon126</v>
+          </cell>
+          <cell r="C128" t="str">
+            <v>귀왕의 검</v>
           </cell>
         </row>
       </sheetData>
@@ -2342,11 +2370,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O64"/>
+  <dimension ref="A1:O66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
+      <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5431,6 +5459,104 @@
       </c>
       <c r="O64">
         <v>737</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" ref="C65:C66" si="5">M65&amp;" 획득"</f>
+        <v>음혼마군의 검 획득</v>
+      </c>
+      <c r="D65" s="1">
+        <v>125</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
+      <c r="F65">
+        <v>46</v>
+      </c>
+      <c r="G65">
+        <v>184000</v>
+      </c>
+      <c r="H65">
+        <v>27</v>
+      </c>
+      <c r="I65">
+        <v>19600</v>
+      </c>
+      <c r="J65">
+        <v>10</v>
+      </c>
+      <c r="K65" s="1">
+        <v>0</v>
+      </c>
+      <c r="L65" t="b">
+        <v>1</v>
+      </c>
+      <c r="M65" t="str">
+        <f>VLOOKUP(D65,[1]Weapon!$A:$C,3,FALSE)</f>
+        <v>음혼마군의 검</v>
+      </c>
+      <c r="N65">
+        <v>11</v>
+      </c>
+      <c r="O65">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" si="5"/>
+        <v>귀왕의 검 획득</v>
+      </c>
+      <c r="D66" s="1">
+        <v>126</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66">
+        <v>46</v>
+      </c>
+      <c r="G66">
+        <v>187000</v>
+      </c>
+      <c r="H66">
+        <v>27</v>
+      </c>
+      <c r="I66">
+        <v>20000</v>
+      </c>
+      <c r="J66">
+        <v>10</v>
+      </c>
+      <c r="K66" s="1">
+        <v>0</v>
+      </c>
+      <c r="L66" t="b">
+        <v>1</v>
+      </c>
+      <c r="M66" t="str">
+        <f>VLOOKUP(D66,[1]Weapon!$A:$C,3,FALSE)</f>
+        <v>귀왕의 검</v>
+      </c>
+      <c r="N66">
+        <v>11</v>
+      </c>
+      <c r="O66">
+        <v>739</v>
       </c>
     </row>
   </sheetData>
